--- a/artfynd/A 35554-2023.xlsx
+++ b/artfynd/A 35554-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112366295</v>
       </c>
       <c r="B2" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>112365733</v>
       </c>
       <c r="B3" t="n">
-        <v>90789</v>
+        <v>90803</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 35554-2023.xlsx
+++ b/artfynd/A 35554-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112366295</v>
+        <v>112365733</v>
       </c>
       <c r="B2" t="n">
-        <v>90826</v>
+        <v>90803</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,29 +692,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>150</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
@@ -770,6 +778,11 @@
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Yngre ("gallringsskog") tall/granskog</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -786,10 +799,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112365733</v>
+        <v>112366295</v>
       </c>
       <c r="B3" t="n">
-        <v>90803</v>
+        <v>90826</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,37 +811,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>150</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
@@ -884,11 +889,6 @@
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Yngre ("gallringsskog") tall/granskog</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
